--- a/map/4.1.xlsx
+++ b/map/4.1.xlsx
@@ -56,13 +56,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,8 +114,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,134 +477,134 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -614,188 +614,188 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
